--- a/src/main/resources/kegelmeisterschaft/service/importer/2016/results/KC K.e.R.n..xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2016/results/KC K.e.R.n..xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="53">
   <si>
     <t>firstName</t>
   </si>
@@ -151,16 +151,25 @@
     <t>Svenja</t>
   </si>
   <si>
-    <t>Wassmuth</t>
-  </si>
-  <si>
     <t>Sascha</t>
   </si>
   <si>
     <t>Wegener</t>
   </si>
   <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>von Croy</t>
+  </si>
+  <si>
     <t>checker</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Grote</t>
   </si>
 </sst>
 </file>
@@ -227,11 +236,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -300,7 +309,7 @@
         <v>0.0</v>
       </c>
       <c r="J2" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="6">
@@ -336,7 +345,7 @@
         <v>0.0</v>
       </c>
       <c r="J3" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="6">
@@ -357,26 +366,26 @@
         <v>12</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="H4" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I4" s="3">
         <v>0.0</v>
       </c>
       <c r="J4" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="6">
-        <v>0.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="5">
@@ -393,26 +402,26 @@
         <v>12</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="H5" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I5" s="3">
         <v>0.0</v>
       </c>
       <c r="J5" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="6">
-        <v>0.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="6">
@@ -429,26 +438,26 @@
         <v>12</v>
       </c>
       <c r="E6" s="3">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="F6" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G6" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H6" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I6" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J6" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="6">
-        <v>0.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="7">
@@ -465,26 +474,26 @@
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H7" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="I7" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J7" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="6">
-        <v>0.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="8">
@@ -501,26 +510,26 @@
         <v>12</v>
       </c>
       <c r="E8" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F8" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="G8" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H8" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I8" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J8" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="6">
-        <v>0.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="9">
@@ -537,26 +546,26 @@
         <v>12</v>
       </c>
       <c r="E9" s="3">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="F9" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G9" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H9" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="I9" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J9" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="6">
-        <v>0.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="10">
@@ -573,26 +582,26 @@
         <v>12</v>
       </c>
       <c r="E10" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="F10" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G10" s="3">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="H10" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I10" s="3">
         <v>0.0</v>
       </c>
       <c r="J10" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="6">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="11">
@@ -609,26 +618,26 @@
         <v>12</v>
       </c>
       <c r="E11" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="F11" s="3">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G11" s="3">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="H11" s="3">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="I11" s="3">
         <v>0.0</v>
       </c>
       <c r="J11" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="6">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="12">
@@ -660,7 +669,7 @@
         <v>0.0</v>
       </c>
       <c r="J12" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="6">
@@ -696,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c r="J13" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="6">
@@ -732,7 +741,7 @@
         <v>0.0</v>
       </c>
       <c r="J14" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="6">
@@ -768,7 +777,7 @@
         <v>0.0</v>
       </c>
       <c r="J15" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="6">
@@ -789,26 +798,26 @@
         <v>12</v>
       </c>
       <c r="E16" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F16" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G16" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="H16" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I16" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J16" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="6">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="17">
@@ -825,26 +834,26 @@
         <v>12</v>
       </c>
       <c r="E17" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F17" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G17" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H17" s="3">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="I17" s="3">
         <v>0.0</v>
       </c>
       <c r="J17" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="6">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="18">
@@ -876,7 +885,7 @@
         <v>0.0</v>
       </c>
       <c r="J18" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="6">
@@ -912,7 +921,7 @@
         <v>0.0</v>
       </c>
       <c r="J19" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="6">
@@ -948,7 +957,7 @@
         <v>0.0</v>
       </c>
       <c r="J20" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="6">
@@ -984,7 +993,7 @@
         <v>0.0</v>
       </c>
       <c r="J21" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="6">
@@ -1005,26 +1014,26 @@
         <v>12</v>
       </c>
       <c r="E22" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F22" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G22" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H22" s="3">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="I22" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J22" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="6">
-        <v>0.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="23">
@@ -1041,26 +1050,26 @@
         <v>12</v>
       </c>
       <c r="E23" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F23" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G23" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H23" s="3">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="I23" s="3">
         <v>0.0</v>
       </c>
       <c r="J23" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="6">
-        <v>0.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="24">
@@ -1092,7 +1101,7 @@
         <v>0.0</v>
       </c>
       <c r="J24" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="6">
@@ -1128,7 +1137,7 @@
         <v>0.0</v>
       </c>
       <c r="J25" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="6">
@@ -1149,26 +1158,26 @@
         <v>12</v>
       </c>
       <c r="E26" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F26" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G26" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="H26" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I26" s="3">
         <v>0.0</v>
       </c>
       <c r="J26" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="6">
-        <v>0.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="27">
@@ -1185,26 +1194,26 @@
         <v>12</v>
       </c>
       <c r="E27" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F27" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G27" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="H27" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I27" s="3">
         <v>0.0</v>
       </c>
       <c r="J27" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="6">
-        <v>0.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="28">
@@ -1236,7 +1245,7 @@
         <v>0.0</v>
       </c>
       <c r="J28" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="6">
@@ -1272,7 +1281,7 @@
         <v>0.0</v>
       </c>
       <c r="J29" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="6">
@@ -1293,26 +1302,26 @@
         <v>12</v>
       </c>
       <c r="E30" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="F30" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G30" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="H30" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I30" s="3">
         <v>0.0</v>
       </c>
       <c r="J30" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="6">
-        <v>0.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="31">
@@ -1329,26 +1338,26 @@
         <v>12</v>
       </c>
       <c r="E31" s="3">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="F31" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G31" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H31" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I31" s="3">
         <v>0.0</v>
       </c>
       <c r="J31" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="6">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="32">
@@ -1365,26 +1374,26 @@
         <v>12</v>
       </c>
       <c r="E32" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F32" s="3">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="G32" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H32" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I32" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J32" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="6">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="33">
@@ -1401,26 +1410,26 @@
         <v>12</v>
       </c>
       <c r="E33" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="F33" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G33" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H33" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="I33" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J33" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="6">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="34">
@@ -1452,7 +1461,7 @@
         <v>0.0</v>
       </c>
       <c r="J34" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="6">
@@ -1488,7 +1497,7 @@
         <v>0.0</v>
       </c>
       <c r="J35" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="6">
@@ -1509,26 +1518,26 @@
         <v>12</v>
       </c>
       <c r="E36" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F36" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G36" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H36" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I36" s="3">
         <v>0.0</v>
       </c>
       <c r="J36" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="6">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="37">
@@ -1545,26 +1554,26 @@
         <v>12</v>
       </c>
       <c r="E37" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F37" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G37" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H37" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I37" s="3">
         <v>0.0</v>
       </c>
       <c r="J37" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="6">
-        <v>0.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="38">
@@ -1596,7 +1605,7 @@
         <v>0.0</v>
       </c>
       <c r="J38" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="6">
@@ -1632,7 +1641,7 @@
         <v>0.0</v>
       </c>
       <c r="J39" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="6">
@@ -1668,7 +1677,7 @@
         <v>0.0</v>
       </c>
       <c r="J40" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="6">
@@ -1704,7 +1713,7 @@
         <v>0.0</v>
       </c>
       <c r="J41" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="6">
@@ -1725,26 +1734,26 @@
         <v>12</v>
       </c>
       <c r="E42" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F42" s="3">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G42" s="3">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="H42" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I42" s="3">
         <v>0.0</v>
       </c>
       <c r="J42" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="6">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="43">
@@ -1761,26 +1770,26 @@
         <v>12</v>
       </c>
       <c r="E43" s="3">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="F43" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G43" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H43" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I43" s="3">
         <v>0.0</v>
       </c>
       <c r="J43" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="6">
-        <v>0.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="44">
@@ -1797,26 +1806,26 @@
         <v>12</v>
       </c>
       <c r="E44" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F44" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G44" s="3">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="H44" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I44" s="3">
         <v>0.0</v>
       </c>
       <c r="J44" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="6">
-        <v>0.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="45">
@@ -1833,26 +1842,26 @@
         <v>12</v>
       </c>
       <c r="E45" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="F45" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G45" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H45" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I45" s="3">
         <v>0.0</v>
       </c>
       <c r="J45" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="6">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="46">
@@ -1869,26 +1878,26 @@
         <v>12</v>
       </c>
       <c r="E46" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F46" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G46" s="3">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="H46" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="I46" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J46" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="6">
-        <v>0.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="47">
@@ -1905,26 +1914,26 @@
         <v>12</v>
       </c>
       <c r="E47" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F47" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="G47" s="3">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="H47" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="I47" s="3">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J47" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="6">
-        <v>0.0</v>
+        <v>122.0</v>
       </c>
     </row>
     <row r="48">
@@ -1941,26 +1950,26 @@
         <v>12</v>
       </c>
       <c r="E48" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F48" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G48" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H48" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I48" s="3">
         <v>0.0</v>
       </c>
       <c r="J48" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="6">
-        <v>0.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="49">
@@ -1977,26 +1986,26 @@
         <v>12</v>
       </c>
       <c r="E49" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F49" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G49" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H49" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="I49" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J49" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="5"/>
       <c r="L49" s="6">
-        <v>0.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="50">
@@ -2013,26 +2022,26 @@
         <v>12</v>
       </c>
       <c r="E50" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F50" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G50" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H50" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I50" s="3">
         <v>0.0</v>
       </c>
       <c r="J50" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="5"/>
       <c r="L50" s="6">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="51">
@@ -2049,26 +2058,26 @@
         <v>12</v>
       </c>
       <c r="E51" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F51" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="G51" s="3">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="H51" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I51" s="3">
         <v>0.0</v>
       </c>
       <c r="J51" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="5"/>
       <c r="L51" s="6">
-        <v>0.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="52">
@@ -2085,26 +2094,26 @@
         <v>12</v>
       </c>
       <c r="E52" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F52" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G52" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H52" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I52" s="3">
         <v>0.0</v>
       </c>
       <c r="J52" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="5"/>
       <c r="L52" s="6">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="53">
@@ -2121,26 +2130,26 @@
         <v>12</v>
       </c>
       <c r="E53" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F53" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G53" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H53" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I53" s="3">
         <v>0.0</v>
       </c>
       <c r="J53" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="5"/>
       <c r="L53" s="6">
-        <v>0.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="54">
@@ -2157,26 +2166,26 @@
         <v>12</v>
       </c>
       <c r="E54" s="1">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="F54" s="1">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G54" s="1">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H54" s="1">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I54" s="1">
         <v>0.0</v>
       </c>
       <c r="J54" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="5"/>
       <c r="L54" s="6">
-        <v>0.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="55">
@@ -2193,26 +2202,26 @@
         <v>12</v>
       </c>
       <c r="E55" s="1">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="F55" s="1">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G55" s="1">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="H55" s="1">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="I55" s="1">
         <v>0.0</v>
       </c>
       <c r="J55" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="5"/>
       <c r="L55" s="6">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="56">
@@ -2229,26 +2238,26 @@
         <v>12</v>
       </c>
       <c r="E56" s="1">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="F56" s="1">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G56" s="1">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H56" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I56" s="1">
         <v>0.0</v>
       </c>
       <c r="J56" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="5"/>
       <c r="L56" s="6">
-        <v>0.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="57">
@@ -2265,26 +2274,26 @@
         <v>12</v>
       </c>
       <c r="E57" s="1">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F57" s="1">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G57" s="1">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H57" s="1">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I57" s="1">
         <v>0.0</v>
       </c>
       <c r="J57" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="5"/>
       <c r="L57" s="6">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="58">
@@ -2316,7 +2325,7 @@
         <v>0.0</v>
       </c>
       <c r="J58" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="6">
@@ -2352,7 +2361,7 @@
         <v>0.0</v>
       </c>
       <c r="J59" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="5"/>
       <c r="L59" s="6">
@@ -2388,7 +2397,7 @@
         <v>0.0</v>
       </c>
       <c r="J60" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="5"/>
       <c r="L60" s="6">
@@ -2424,7 +2433,7 @@
         <v>0.0</v>
       </c>
       <c r="J61" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="5"/>
       <c r="L61" s="6">
@@ -2460,7 +2469,7 @@
         <v>0.0</v>
       </c>
       <c r="J62" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="5"/>
       <c r="L62" s="6">
@@ -2496,7 +2505,7 @@
         <v>0.0</v>
       </c>
       <c r="J63" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="5"/>
       <c r="L63" s="6">
@@ -2517,26 +2526,26 @@
         <v>12</v>
       </c>
       <c r="E64" s="6">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F64" s="6">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G64" s="6">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H64" s="6">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I64" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J64" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="5"/>
       <c r="L64" s="6">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="65">
@@ -2553,25 +2562,25 @@
         <v>12</v>
       </c>
       <c r="E65" s="6">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F65" s="6">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="G65" s="6">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H65" s="6">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I65" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J65" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="6">
-        <v>0.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="66">
@@ -2588,25 +2597,25 @@
         <v>12</v>
       </c>
       <c r="E66" s="6">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F66" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G66" s="6">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H66" s="6">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I66" s="6">
         <v>0.0</v>
       </c>
       <c r="J66" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="6">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="67">
@@ -2623,25 +2632,25 @@
         <v>12</v>
       </c>
       <c r="E67" s="6">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F67" s="6">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G67" s="6">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="H67" s="6">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I67" s="6">
         <v>0.0</v>
       </c>
       <c r="J67" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="6">
-        <v>0.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="68">
@@ -2658,25 +2667,25 @@
         <v>12</v>
       </c>
       <c r="E68" s="6">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="F68" s="6">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G68" s="6">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H68" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I68" s="6">
         <v>0.0</v>
       </c>
       <c r="J68" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="6">
-        <v>0.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="69">
@@ -2693,25 +2702,25 @@
         <v>12</v>
       </c>
       <c r="E69" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="F69" s="6">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G69" s="6">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="H69" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I69" s="6">
         <v>0.0</v>
       </c>
       <c r="J69" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="6">
-        <v>0.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="70">
@@ -2728,25 +2737,25 @@
         <v>12</v>
       </c>
       <c r="E70" s="6">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F70" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G70" s="6">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H70" s="6">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I70" s="6">
         <v>0.0</v>
       </c>
       <c r="J70" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="6">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="71">
@@ -2763,25 +2772,25 @@
         <v>12</v>
       </c>
       <c r="E71" s="6">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="F71" s="6">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G71" s="6">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H71" s="6">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I71" s="6">
         <v>0.0</v>
       </c>
       <c r="J71" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="6">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="72">
@@ -2813,7 +2822,7 @@
         <v>0.0</v>
       </c>
       <c r="J72" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="6">
         <v>0.0</v>
@@ -2848,7 +2857,7 @@
         <v>0.0</v>
       </c>
       <c r="J73" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="6">
         <v>0.0</v>
@@ -2859,7 +2868,7 @@
         <v>45</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C74" s="6">
         <v>1.0</v>
@@ -2868,25 +2877,25 @@
         <v>12</v>
       </c>
       <c r="E74" s="6">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F74" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G74" s="6">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H74" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I74" s="6">
         <v>0.0</v>
       </c>
       <c r="J74" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="6">
-        <v>0.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="75">
@@ -2894,7 +2903,7 @@
         <v>45</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C75" s="6">
         <v>2.0</v>
@@ -2903,25 +2912,25 @@
         <v>12</v>
       </c>
       <c r="E75" s="6">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="F75" s="6">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G75" s="6">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H75" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I75" s="6">
         <v>0.0</v>
       </c>
       <c r="J75" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="6">
-        <v>0.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="76">
@@ -2929,7 +2938,7 @@
         <v>45</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C76" s="6">
         <v>3.0</v>
@@ -2938,25 +2947,25 @@
         <v>12</v>
       </c>
       <c r="E76" s="6">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F76" s="6">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G76" s="6">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H76" s="6">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I76" s="6">
         <v>0.0</v>
       </c>
       <c r="J76" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="6">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="77">
@@ -2964,7 +2973,7 @@
         <v>45</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C77" s="6">
         <v>4.0</v>
@@ -2973,33 +2982,33 @@
         <v>12</v>
       </c>
       <c r="E77" s="6">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="F77" s="6">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G77" s="6">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H77" s="6">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I77" s="6">
         <v>0.0</v>
       </c>
       <c r="J77" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="6">
-        <v>0.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="C78" s="6">
         <v>1.0</v>
@@ -3008,33 +3017,33 @@
         <v>12</v>
       </c>
       <c r="E78" s="6">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F78" s="6">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G78" s="6">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H78" s="6">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I78" s="6">
         <v>0.0</v>
       </c>
       <c r="J78" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="6">
-        <v>0.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="C79" s="6">
         <v>2.0</v>
@@ -3043,33 +3052,33 @@
         <v>12</v>
       </c>
       <c r="E79" s="6">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="F79" s="6">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G79" s="6">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H79" s="6">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I79" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J79" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" s="6">
-        <v>0.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="C80" s="6">
         <v>3.0</v>
@@ -3078,33 +3087,33 @@
         <v>12</v>
       </c>
       <c r="E80" s="6">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F80" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G80" s="6">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H80" s="6">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="I80" s="6">
         <v>0.0</v>
       </c>
       <c r="J80" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" s="6">
-        <v>0.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="C81" s="6">
         <v>4.0</v>
@@ -3113,199 +3122,235 @@
         <v>12</v>
       </c>
       <c r="E81" s="6">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F81" s="6">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="G81" s="6">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H81" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I81" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J81" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" s="6">
-        <v>0.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="82">
+      <c r="A82" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="C82" s="6">
         <v>1.0</v>
       </c>
       <c r="D82" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E82" s="6">
+        <v>34.0</v>
+      </c>
+      <c r="F82" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="G82" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="H82" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="I82" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J82" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" s="6">
+        <v>79.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E82" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F82" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G82" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H82" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I82" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J82" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L82" s="6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="83">
       <c r="C83" s="6">
         <v>2.0</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E83" s="6">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="F83" s="6">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G83" s="6">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H83" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I83" s="6">
         <v>0.0</v>
       </c>
       <c r="J83" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" s="6">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="84">
+      <c r="A84" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C84" s="6">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E84" s="6">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F84" s="6">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G84" s="6">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H84" s="6">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I84" s="6">
         <v>0.0</v>
       </c>
       <c r="J84" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" s="6">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="85">
+      <c r="A85" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C85" s="6">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E85" s="6">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F85" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G85" s="6">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H85" s="6">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="I85" s="6">
         <v>0.0</v>
       </c>
       <c r="J85" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" s="6">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="86">
+      <c r="A86" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="C86" s="6">
         <v>3.0</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E86" s="6">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F86" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G86" s="6">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="H86" s="6">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I86" s="6">
         <v>0.0</v>
       </c>
       <c r="J86" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" s="6">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="87">
+      <c r="A87" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="C87" s="6">
         <v>4.0</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E87" s="6">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F87" s="6">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G87" s="6">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="H87" s="6">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="I87" s="6">
         <v>0.0</v>
       </c>
       <c r="J87" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" s="6">
-        <v>0.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="88">
@@ -3313,7 +3358,7 @@
         <v>3.0</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E88" s="6">
         <v>0.0</v>
@@ -3342,7 +3387,7 @@
         <v>4.0</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E89" s="6">
         <v>0.0</v>
